--- a/sc/qa/unit/data/xlsx/pivot-table/PivotTableCellFormatsTest_2_DataFieldInRow_ColumnLabelColor.xlsx
+++ b/sc/qa/unit/data/xlsx/pivot-table/PivotTableCellFormatsTest_2_DataFieldInRow_ColumnLabelColor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\quikee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B861FA5-F8E0-42B0-9E5B-20AC1B24358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE39009C-A295-49D8-B2D8-CA836453FF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="16224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,37 +40,22 @@
     <t>Sum of C</t>
   </si>
   <si>
-    <t>Values</t>
+    <t>Sum of D</t>
   </si>
   <si>
-    <t>Sum of D</t>
+    <t>Values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -119,6 +104,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="65"/>
       </left>
@@ -141,17 +137,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF999999"/>
       </left>
@@ -188,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,49 +183,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -259,72 +242,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF43B21-4365-AD79-48AA-2D64711B9B93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3611880" y="1645920"/>
-          <a:ext cx="3238500" cy="739140"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,27 +318,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" colGrandTotals="0" createdVersion="8" indent="0" compact="0" outline="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" createdVersion="8" indent="0" compact="0" outline="1" compactData="0">
   <location ref="G4:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisCol" compact="0" showAll="0">
-      <items count="5">
+    <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" showAll="0">
-      <items count="3">
+    <pivotField compact="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
         <item x="0"/>
         <item x="1"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
@@ -455,36 +370,12 @@
     <dataField name="Sum of C" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Sum of D" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="3">
-    <format dxfId="2">
+  <formats count="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -496,7 +387,7 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -763,7 +654,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -836,12 +727,12 @@
         <v>6</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
@@ -856,19 +747,19 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="14">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>4</v>
       </c>
     </row>
@@ -876,38 +767,37 @@
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="8">
         <v>4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>7</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
         <v>6</v>
       </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>6</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="K7" s="13">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sc/qa/unit/data/xlsx/pivot-table/PivotTableCellFormatsTest_2_DataFieldInRow_ColumnLabelColor.xlsx
+++ b/sc/qa/unit/data/xlsx/pivot-table/PivotTableCellFormatsTest_2_DataFieldInRow_ColumnLabelColor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\quikee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE39009C-A295-49D8-B2D8-CA836453FF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC6506C-8AD4-4CC9-9A43-29D0F5A104D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="16224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,25 +195,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -242,6 +230,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCADC698-D704-4C18-344D-AD7A62E80C1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3611880" y="1463040"/>
+          <a:ext cx="3238500" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,7 +708,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -750,7 +804,7 @@
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>1</v>
       </c>
       <c r="I5" s="6">
@@ -767,37 +821,38 @@
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>7</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>2</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>6</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="9">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>